--- a/REPORT/Check.xlsx
+++ b/REPORT/Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0447187-E6BA-45B3-9CE1-13D3C73C752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366FF71-AFF8-4D6E-927B-52A94452733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ввод валидных значений логина и пароля </t>
-  </si>
-  <si>
-    <t>Ввод невалидных значений логина и пароля:
-- логин валидный, пароль невалидный;
-- логин невалидный, пароль валидный;
-- логин невалидный, пароль невалидный.</t>
   </si>
   <si>
     <t>Ввод пустых значений</t>
@@ -108,13 +102,6 @@
   </si>
   <si>
     <t>Отображение страницы Main</t>
-  </si>
-  <si>
-    <t>Создание объявления и его отображение на странице моих объявлений и странице News:
-- актуальное время и дата;
-- отложенное время и дата;
-- пустое обявление;
-- выход из создания объявления.</t>
   </si>
   <si>
     <t>Редактирование объявления и его отображение на странице моих объявлений и странице News</t>
@@ -155,12 +142,138 @@
 - раздел созданных  объявлений;
 - раздел News.</t>
   </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pass
+pass</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+fail
+fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pass
+fail
+</t>
+  </si>
+  <si>
+    <t>pass
+fail</t>
+  </si>
+  <si>
+    <t>Поворот экрана</t>
+  </si>
+  <si>
+    <t>Время запуска приложения менее 2 секунд</t>
+  </si>
+  <si>
+    <t>В полях с вводом пароля и подтверждением пароля данные скрываются астерисками</t>
+  </si>
+  <si>
+    <t>Нехватка памяти</t>
+  </si>
+  <si>
+    <t>Заряд батареи:
+- подключение зарядного устройства;
+- отключение зарядного устройства.</t>
+  </si>
+  <si>
+    <t>Высокая загрузка центрального процессора</t>
+  </si>
+  <si>
+    <t>Разряд батареи</t>
+  </si>
+  <si>
+    <t>Низкая пропускная способность сети</t>
+  </si>
+  <si>
+    <t>Большое количество взаимодействий пользователя с приложением</t>
+  </si>
+  <si>
+    <t>Потребление ресурсов приложением</t>
+  </si>
+  <si>
+    <t>В поисковых строках присутствуют плейсхолдеры</t>
+  </si>
+  <si>
+    <t>Удобство использования</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>Тестирование прерываний:
+- входящий звонок;
+- sms;
+- PUSH уведомление;
+- будильник;
+- сообщение от другого приложения.</t>
+  </si>
+  <si>
+    <t>Совместимость</t>
+  </si>
+  <si>
+    <t>Данные пользователя не передаются в открытом виде</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>не проводилось*</t>
+  </si>
+  <si>
+    <t>*Для проведения тестирования требуются дополнительные ресурсы</t>
+  </si>
+  <si>
+    <t>Стрессовое тестирование</t>
+  </si>
+  <si>
+    <t>Ввод невалидных значений логина и пароля:
+- логин валидный, пароль невалидный;
+- логин невалидный, пароль валидный;
+- логин невалидный, пароль невалидный;
+- ограничение символов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pass
+pass
+pass
+fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+fail
+fail
+pass
+fail
+pass</t>
+  </si>
+  <si>
+    <t>Создание объявления и его отображение на странице моих объявлений и странице News:
+- актуальное время и дата;
+- отложенное время и дата;
+- пустое обявление;
+- ограничение символов;
+- выход из создания объявления.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,6 +308,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Apple-system"/>
     </font>
   </fonts>
   <fills count="7">
@@ -235,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -307,10 +433,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -319,15 +445,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -337,35 +532,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,20 +569,92 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,280 +874,538 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="45.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="13.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.6">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="C5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.2">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="67.2" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.2">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.2">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.2">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="118.8">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39.6">
+      <c r="A17" s="16"/>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="92.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D18" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D19" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="D20" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="26.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.2">
+      <c r="A25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="39.6">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D27" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D28" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="81.599999999999994" customHeight="1">
+      <c r="A31" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A32" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42" customHeight="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="43"/>
+      <c r="B38" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.2" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A25:A26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
